--- a/NFL 2019 Schedule.xlsx
+++ b/NFL 2019 Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bewew\source\repos\TEAM5_560\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132FD86A-777C-49D5-962E-6EEE69A5C92F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF6069-0E70-4312-8ACA-E8F0E44E6E26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" xr2:uid="{8561ABBB-72B0-47DA-B1DF-9EFC21B38F4A}"/>
   </bookViews>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED9D0A5-D8AB-4E2D-AF01-BC3E0A504FB6}">
   <dimension ref="A1:AM311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NFL 2019 Schedule.xlsx
+++ b/NFL 2019 Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bewewer\Desktop\TEAM5_560\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041084A3-CE0A-49D0-809C-CD5ADF73B103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E482AF-CEC6-4F5B-8955-80C619231800}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" xr2:uid="{8561ABBB-72B0-47DA-B1DF-9EFC21B38F4A}"/>
   </bookViews>
@@ -616,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED9D0A5-D8AB-4E2D-AF01-BC3E0A504FB6}">
   <dimension ref="A1:AM311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J257" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I262" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K291" sqref="K291"/>
     </sheetView>
   </sheetViews>
@@ -627,7 +627,7 @@
     <col min="3" max="3" width="21.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="13" customWidth="1"/>
     <col min="7" max="7" width="17" style="13" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="13" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -1351,8 +1351,8 @@
         <v>2019-09-12 20:20:00</v>
       </c>
       <c r="K21" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-12 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E21 = "X", "", "("&amp;F21&amp;", "&amp;G21&amp;", "&amp;A$19&amp;", "&amp;$H$3&amp;", '"&amp;I21&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-12 20:20:00'), </v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1385,8 +1385,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K22" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" ref="K22:K36" si="5" xml:space="preserve">  IF(E22 = "X", "", "("&amp;F22&amp;", "&amp;G22&amp;", "&amp;A$19&amp;", "&amp;$H$3&amp;", '"&amp;I22&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,8 +1419,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K23" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1453,8 +1453,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K24" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1487,8 +1487,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K25" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1521,8 +1521,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K26" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1555,8 +1555,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K27" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1589,8 +1589,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K28" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1623,8 +1623,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K29" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1657,8 +1657,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K30" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1691,8 +1691,8 @@
         <v>2019-09-15 13:00:00</v>
       </c>
       <c r="K31" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 13:00:00'), </v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1725,8 +1725,8 @@
         <v>2019-09-15 16:05:00</v>
       </c>
       <c r="K32" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 16:05:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 16:05:00'), </v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1759,8 +1759,8 @@
         <v>2019-09-15 16:25:00</v>
       </c>
       <c r="K33" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 16:25:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 16:25:00'), </v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1793,8 +1793,8 @@
         <v>2019-09-15 16:25:00</v>
       </c>
       <c r="K34" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 16:25:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 16:25:00'), </v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1827,8 +1827,8 @@
         <v>2019-09-15 20:20:00</v>
       </c>
       <c r="K35" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 20:20:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-15 20:20:00'), </v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1861,8 +1861,8 @@
         <v>2019-09-16 20:15:00</v>
       </c>
       <c r="K36" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-16 20:15:00'), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 2, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-16 20:15:00'), </v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1963,8 +1963,8 @@
         <v>2019-09-19 20:20:00</v>
       </c>
       <c r="K39" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-19 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E39 = "X", "", "("&amp;F39&amp;", "&amp;G39&amp;", "&amp;A$37&amp;", "&amp;$H$3&amp;", '"&amp;I39&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-19 20:20:00'), </v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1997,8 +1997,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K40" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" ref="K40:K54" si="6" xml:space="preserve">  IF(E40 = "X", "", "("&amp;F40&amp;", "&amp;G40&amp;", "&amp;A$37&amp;", "&amp;$H$3&amp;", '"&amp;I40&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2031,8 +2031,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K41" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,8 +2065,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K42" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2099,8 +2099,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K43" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2133,8 +2133,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K44" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2167,8 +2167,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K45" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2201,8 +2201,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K46" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2235,8 +2235,8 @@
         <v>2019-09-22 13:00:00</v>
       </c>
       <c r="K47" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 13:00:00'), </v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2269,8 +2269,8 @@
         <v>2019-09-22 16:05:00</v>
       </c>
       <c r="K48" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:05:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:05:00'), </v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2303,8 +2303,8 @@
         <v>2019-09-22 16:05:00</v>
       </c>
       <c r="K49" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:05:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:05:00'), </v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2337,8 +2337,8 @@
         <v>2019-09-22 16:25:00</v>
       </c>
       <c r="K50" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:25:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:25:00'), </v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2371,8 +2371,8 @@
         <v>2019-09-22 16:25:00</v>
       </c>
       <c r="K51" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:25:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:25:00'), </v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2405,8 +2405,8 @@
         <v>2019-09-22 16:25:00</v>
       </c>
       <c r="K52" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:25:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 16:25:00'), </v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2439,8 +2439,8 @@
         <v>2019-09-22 20:20:00</v>
       </c>
       <c r="K53" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 20:20:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-22 20:20:00'), </v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2473,8 +2473,8 @@
         <v>2019-09-23 20:15:00</v>
       </c>
       <c r="K54" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-23 20:15:00'), </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 3, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-23 20:15:00'), </v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2575,8 +2575,8 @@
         <v>2019-09-26 20:20:00</v>
       </c>
       <c r="K57" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-26 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E57 = "X", "", "("&amp;F57&amp;", "&amp;G57&amp;", "&amp;A$55&amp;", "&amp;$H$3&amp;", '"&amp;I57&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-26 20:20:00'), </v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2609,8 +2609,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K58" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" ref="K58:K71" si="7" xml:space="preserve">  IF(E58 = "X", "", "("&amp;F58&amp;", "&amp;G58&amp;", "&amp;A$55&amp;", "&amp;$H$3&amp;", '"&amp;I58&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,8 +2643,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K59" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2677,8 +2677,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K60" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2711,8 +2711,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K61" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2745,8 +2745,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K62" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2779,8 +2779,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K63" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2813,8 +2813,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K64" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2847,8 +2847,8 @@
         <v>2019-09-29 13:00:00</v>
       </c>
       <c r="K65" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 13:00:00'), </v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2881,8 +2881,8 @@
         <v>2019-09-29 16:05:00</v>
       </c>
       <c r="K66" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:05:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:05:00'), </v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2911,12 +2911,12 @@
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I67" s="16" t="str">
-        <f t="shared" ref="I67:I130" si="5">IF(E67="X","",TEXT(A67,"yyyy-mm-dd")&amp;" "&amp;TEXT(B67,"hh:mm:ss"))</f>
+        <f t="shared" ref="I67:I130" si="8">IF(E67="X","",TEXT(A67,"yyyy-mm-dd")&amp;" "&amp;TEXT(B67,"hh:mm:ss"))</f>
         <v>2019-09-29 16:05:00</v>
       </c>
       <c r="K67" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:05:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:05:00'), </v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2933,24 +2933,24 @@
         <v>25</v>
       </c>
       <c r="F68" s="13" t="str">
-        <f t="shared" ref="F68:F131" si="6" xml:space="preserve"> IF($E68 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D68)&amp;"')")</f>
+        <f t="shared" ref="F68:F131" si="9" xml:space="preserve"> IF($E68 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D68)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="G68" s="13" t="str">
-        <f t="shared" ref="G68:G131" si="7" xml:space="preserve"> IF($E68 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C68)&amp;"')")</f>
+        <f t="shared" ref="G68:G131" si="10" xml:space="preserve"> IF($E68 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C68)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="H68" s="13" t="str">
-        <f t="shared" ref="H68:H131" si="8" xml:space="preserve"> IF($E68 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
+        <f t="shared" ref="H68:H131" si="11" xml:space="preserve"> IF($E68 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I68" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2019-09-29 16:25:00</v>
       </c>
       <c r="K68" s="15" t="str">
-        <f t="shared" ref="K68:K131" si="9" xml:space="preserve">  IF(E68 = "X", "", "("&amp;F68&amp;", "&amp;G68&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I68&amp;"'), ")</f>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:25:00'), </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:25:00'), </v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,24 +2967,24 @@
         <v>8</v>
       </c>
       <c r="F69" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="G69" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
+      </c>
+      <c r="H69" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I69" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>2019-09-29 16:25:00</v>
+      </c>
+      <c r="K69" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
-      </c>
-      <c r="H69" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I69" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>2019-09-29 16:25:00</v>
-      </c>
-      <c r="K69" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:25:00'), </v>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 16:25:00'), </v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3001,24 +3001,24 @@
         <v>38</v>
       </c>
       <c r="F70" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="G70" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
+      </c>
+      <c r="H70" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I70" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>2019-09-29 20:20:00</v>
+      </c>
+      <c r="K70" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
-      </c>
-      <c r="H70" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I70" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>2019-09-29 20:20:00</v>
-      </c>
-      <c r="K70" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 20:20:00'), </v>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-29 20:20:00'), </v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3035,24 +3035,24 @@
         <v>23</v>
       </c>
       <c r="F71" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="G71" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
+      </c>
+      <c r="H71" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I71" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>2019-09-30 20:15:00</v>
+      </c>
+      <c r="K71" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
-      </c>
-      <c r="H71" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I71" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>2019-09-30 20:15:00</v>
-      </c>
-      <c r="K71" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-30 20:15:00'), </v>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 4, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-09-30 20:15:00'), </v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3066,23 +3066,23 @@
         <v>40</v>
       </c>
       <c r="F72" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G72" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H72" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I72" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I72" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K72" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="K68:K131" si="12" xml:space="preserve">  IF(E72 = "X", "", "("&amp;F72&amp;", "&amp;G72&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I72&amp;"'), ")</f>
         <v/>
       </c>
     </row>
@@ -3103,23 +3103,23 @@
         <v>40</v>
       </c>
       <c r="F73" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H73" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I73" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I73" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K73" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3137,24 +3137,24 @@
         <v>32</v>
       </c>
       <c r="F74" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="H74" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I74" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I74" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-03 20:20:00</v>
       </c>
       <c r="K74" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-03 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E74 = "X", "", "("&amp;F74&amp;", "&amp;G74&amp;", "&amp;A$72&amp;", "&amp;$H$3&amp;", '"&amp;I74&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-03 20:20:00'), </v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3171,24 +3171,24 @@
         <v>18</v>
       </c>
       <c r="F75" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="H75" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I75" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I75" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K75" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" ref="K75:K88" si="13" xml:space="preserve">  IF(E75 = "X", "", "("&amp;F75&amp;", "&amp;G75&amp;", "&amp;A$72&amp;", "&amp;$H$3&amp;", '"&amp;I75&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3205,24 +3205,24 @@
         <v>24</v>
       </c>
       <c r="F76" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="H76" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I76" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I76" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K76" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3239,24 +3239,24 @@
         <v>23</v>
       </c>
       <c r="F77" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="H77" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I77" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I77" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K77" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3273,24 +3273,24 @@
         <v>16</v>
       </c>
       <c r="F78" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="H78" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I78" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I78" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K78" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3307,24 +3307,24 @@
         <v>39</v>
       </c>
       <c r="F79" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="H79" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I79" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I79" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K79" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3341,24 +3341,24 @@
         <v>29</v>
       </c>
       <c r="F80" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="H80" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I80" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I80" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K80" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3375,24 +3375,24 @@
         <v>21</v>
       </c>
       <c r="F81" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="H81" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I81" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I81" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K81" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3409,24 +3409,24 @@
         <v>17</v>
       </c>
       <c r="F82" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="H82" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I82" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I82" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K82" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3443,24 +3443,24 @@
         <v>31</v>
       </c>
       <c r="F83" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="H83" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I83" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I83" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K83" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3477,24 +3477,24 @@
         <v>38</v>
       </c>
       <c r="F84" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="H84" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I84" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I84" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 13:00:00</v>
       </c>
       <c r="K84" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 13:00:00'), </v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3511,24 +3511,24 @@
         <v>33</v>
       </c>
       <c r="F85" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="H85" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I85" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I85" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 16:05:00</v>
       </c>
       <c r="K85" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 16:05:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 16:05:00'), </v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3545,24 +3545,24 @@
         <v>35</v>
       </c>
       <c r="F86" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="H86" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I86" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I86" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 16:25:00</v>
       </c>
       <c r="K86" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 16:25:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 16:25:00'), </v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,24 +3579,24 @@
         <v>14</v>
       </c>
       <c r="F87" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="H87" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I87" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I87" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-06 20:20:00</v>
       </c>
       <c r="K87" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 20:20:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-06 20:20:00'), </v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3613,24 +3613,24 @@
         <v>22</v>
       </c>
       <c r="F88" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="H88" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I88" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I88" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-07 20:15:00</v>
       </c>
       <c r="K88" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-07 20:15:00'), </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 5, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-07 20:15:00'), </v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3644,23 +3644,23 @@
         <v>40</v>
       </c>
       <c r="F89" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H89" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I89" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I89" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K89" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3681,23 +3681,23 @@
         <v>40</v>
       </c>
       <c r="F90" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H90" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I90" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I90" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K90" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3715,24 +3715,24 @@
         <v>37</v>
       </c>
       <c r="F91" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="H91" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I91" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I91" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-10 20:20:00</v>
       </c>
       <c r="K91" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-10 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E91 = "X", "", "("&amp;F91&amp;", "&amp;G91&amp;", "&amp;A$89&amp;", "&amp;$H$3&amp;", '"&amp;I91&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-10 20:20:00'), </v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3749,24 +3749,24 @@
         <v>36</v>
       </c>
       <c r="F92" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="H92" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I92" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I92" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 09:30:00</v>
       </c>
       <c r="K92" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 09:30:00'), </v>
+        <f t="shared" ref="K92:K104" si="14" xml:space="preserve">  IF(E92 = "X", "", "("&amp;F92&amp;", "&amp;G92&amp;", "&amp;A$89&amp;", "&amp;$H$3&amp;", '"&amp;I92&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 09:30:00'), </v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3784,29 +3784,29 @@
         <v>12</v>
       </c>
       <c r="F93" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="H93" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I93" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I93" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 13:00:00</v>
       </c>
       <c r="K93" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
-        <f t="shared" ref="A94:A103" si="10">A93</f>
+        <f t="shared" ref="A94:A103" si="15">A93</f>
         <v>43751</v>
       </c>
       <c r="B94" s="5">
@@ -3819,29 +3819,29 @@
         <v>14</v>
       </c>
       <c r="F94" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="H94" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I94" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I94" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 13:00:00</v>
       </c>
       <c r="K94" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B95" s="5">
@@ -3854,29 +3854,29 @@
         <v>28</v>
       </c>
       <c r="F95" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="H95" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I95" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I95" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 13:00:00</v>
       </c>
       <c r="K95" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B96" s="5">
@@ -3889,29 +3889,29 @@
         <v>9</v>
       </c>
       <c r="F96" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="H96" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I96" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I96" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 13:00:00</v>
       </c>
       <c r="K96" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B97" s="5">
@@ -3924,29 +3924,29 @@
         <v>30</v>
       </c>
       <c r="F97" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="H97" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I97" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I97" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 13:00:00</v>
       </c>
       <c r="K97" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B98" s="5">
@@ -3959,29 +3959,29 @@
         <v>26</v>
       </c>
       <c r="F98" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="H98" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I98" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I98" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 13:00:00</v>
       </c>
       <c r="K98" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 13:00:00'), </v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B99" s="5">
@@ -3994,29 +3994,29 @@
         <v>34</v>
       </c>
       <c r="F99" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="H99" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I99" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I99" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 16:05:00</v>
       </c>
       <c r="K99" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:05:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:05:00'), </v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B100" s="5">
@@ -4029,29 +4029,29 @@
         <v>15</v>
       </c>
       <c r="F100" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="H100" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I100" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I100" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 16:05:00</v>
       </c>
       <c r="K100" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:05:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:05:00'), </v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B101" s="5">
@@ -4064,29 +4064,29 @@
         <v>27</v>
       </c>
       <c r="F101" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="H101" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I101" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I101" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 16:25:00</v>
       </c>
       <c r="K101" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:25:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:25:00'), </v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B102" s="5">
@@ -4099,29 +4099,29 @@
         <v>25</v>
       </c>
       <c r="F102" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="H102" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I102" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I102" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 16:25:00</v>
       </c>
       <c r="K102" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:25:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 16:25:00'), </v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B103" s="5">
@@ -4134,24 +4134,24 @@
         <v>33</v>
       </c>
       <c r="F103" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="H103" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I103" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I103" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-13 20:20:00</v>
       </c>
       <c r="K103" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 20:20:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-13 20:20:00'), </v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4168,24 +4168,24 @@
         <v>10</v>
       </c>
       <c r="F104" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="H104" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I104" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I104" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-14 20:15:00</v>
       </c>
       <c r="K104" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-14 20:15:00'), </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 6, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-14 20:15:00'), </v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4199,23 +4199,23 @@
         <v>40</v>
       </c>
       <c r="F105" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H105" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I105" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I105" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K105" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -4236,23 +4236,23 @@
         <v>40</v>
       </c>
       <c r="F106" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H106" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I106" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I106" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K106" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -4270,24 +4270,24 @@
         <v>25</v>
       </c>
       <c r="F107" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="H107" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I107" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I107" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-17 20:20:00</v>
       </c>
       <c r="K107" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-17 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E107 = "X", "", "("&amp;F107&amp;", "&amp;G107&amp;", "&amp;A$105&amp;", "&amp;$H$3&amp;", '"&amp;I107&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-17 20:20:00'), </v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4304,24 +4304,24 @@
         <v>21</v>
       </c>
       <c r="F108" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="H108" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I108" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I108" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K108" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" ref="K108:K120" si="16" xml:space="preserve">  IF(E108 = "X", "", "("&amp;F108&amp;", "&amp;G108&amp;", "&amp;A$105&amp;", "&amp;$H$3&amp;", '"&amp;I108&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4339,29 +4339,29 @@
         <v>19</v>
       </c>
       <c r="F109" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="H109" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I109" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I109" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K109" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
-        <f t="shared" ref="A110:A119" si="11">A109</f>
+        <f t="shared" ref="A110:A119" si="17">A109</f>
         <v>43758</v>
       </c>
       <c r="B110" s="5">
@@ -4374,29 +4374,29 @@
         <v>18</v>
       </c>
       <c r="F110" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="H110" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I110" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I110" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K110" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B111" s="5">
@@ -4409,29 +4409,29 @@
         <v>11</v>
       </c>
       <c r="F111" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="H111" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I111" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I111" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K111" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B112" s="5">
@@ -4444,29 +4444,29 @@
         <v>13</v>
       </c>
       <c r="F112" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="H112" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I112" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I112" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K112" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B113" s="5">
@@ -4479,29 +4479,29 @@
         <v>20</v>
       </c>
       <c r="F113" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="H113" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I113" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I113" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K113" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B114" s="5">
@@ -4514,29 +4514,29 @@
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="H114" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I114" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I114" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K114" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B115" s="5">
@@ -4549,29 +4549,29 @@
         <v>17</v>
       </c>
       <c r="F115" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="H115" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I115" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I115" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 13:00:00</v>
       </c>
       <c r="K115" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 13:00:00'), </v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B116" s="5">
@@ -4584,29 +4584,29 @@
         <v>16</v>
       </c>
       <c r="F116" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="H116" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I116" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I116" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 16:05:00</v>
       </c>
       <c r="K116" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 16:05:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 16:05:00'), </v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B117" s="5">
@@ -4619,29 +4619,29 @@
         <v>32</v>
       </c>
       <c r="F117" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="H117" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I117" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I117" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 16:25:00</v>
       </c>
       <c r="K117" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 16:25:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 16:25:00'), </v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B118" s="5">
@@ -4654,29 +4654,29 @@
         <v>8</v>
       </c>
       <c r="F118" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="H118" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I118" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I118" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 16:25:00</v>
       </c>
       <c r="K118" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 16:25:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 16:25:00'), </v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43758</v>
       </c>
       <c r="B119" s="5">
@@ -4689,24 +4689,24 @@
         <v>35</v>
       </c>
       <c r="F119" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="H119" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I119" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I119" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-20 20:20:00</v>
       </c>
       <c r="K119" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 20:20:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-20 20:20:00'), </v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4723,24 +4723,24 @@
         <v>27</v>
       </c>
       <c r="F120" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="H120" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I120" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I120" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-21 20:15:00</v>
       </c>
       <c r="K120" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-21 20:15:00'), </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 7, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-21 20:15:00'), </v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4754,23 +4754,23 @@
         <v>40</v>
       </c>
       <c r="F121" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H121" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I121" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I121" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K121" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -4791,23 +4791,23 @@
         <v>40</v>
       </c>
       <c r="F122" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H122" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I122" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I122" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K122" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -4825,24 +4825,24 @@
         <v>9</v>
       </c>
       <c r="F123" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="H123" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I123" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I123" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-24 20:20:00</v>
       </c>
       <c r="K123" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-24 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E123 = "X", "", "("&amp;F123&amp;", "&amp;G123&amp;", "&amp;A$121&amp;", "&amp;$H$3&amp;", '"&amp;I123&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-24 20:20:00'), </v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -4859,24 +4859,24 @@
         <v>38</v>
       </c>
       <c r="F124" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="H124" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I124" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I124" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K124" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" ref="K124:K137" si="18" xml:space="preserve">  IF(E124 = "X", "", "("&amp;F124&amp;", "&amp;G124&amp;", "&amp;A$121&amp;", "&amp;$H$3&amp;", '"&amp;I124&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -4894,29 +4894,29 @@
         <v>15</v>
       </c>
       <c r="F125" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="H125" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I125" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I125" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K125" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
-        <f t="shared" ref="A126:A136" si="12">A125</f>
+        <f t="shared" ref="A126:A136" si="19">A125</f>
         <v>43765</v>
       </c>
       <c r="B126" s="4">
@@ -4929,29 +4929,29 @@
         <v>19</v>
       </c>
       <c r="F126" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="G126" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="H126" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I126" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I126" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K126" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B127" s="4">
@@ -4964,29 +4964,29 @@
         <v>8</v>
       </c>
       <c r="F127" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="G127" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="H127" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I127" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I127" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K127" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B128" s="4">
@@ -4999,29 +4999,29 @@
         <v>20</v>
       </c>
       <c r="F128" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="G128" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="H128" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I128" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I128" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K128" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B129" s="4">
@@ -5034,29 +5034,29 @@
         <v>28</v>
       </c>
       <c r="F129" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="G129" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="H129" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I129" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I129" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K129" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B130" s="4">
@@ -5069,29 +5069,29 @@
         <v>13</v>
       </c>
       <c r="F130" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="G130" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="H130" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
+      </c>
+      <c r="I130" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
-      </c>
-      <c r="I130" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K130" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B131" s="4">
@@ -5104,29 +5104,29 @@
         <v>11</v>
       </c>
       <c r="F131" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="H131" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I131" s="16" t="str">
-        <f t="shared" ref="I131:I194" si="13">IF(E131="X","",TEXT(A131,"yyyy-mm-dd")&amp;" "&amp;TEXT(B131,"hh:mm:ss"))</f>
+        <f t="shared" ref="I131:I194" si="20">IF(E131="X","",TEXT(A131,"yyyy-mm-dd")&amp;" "&amp;TEXT(B131,"hh:mm:ss"))</f>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K131" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B132" s="4">
@@ -5139,29 +5139,29 @@
         <v>16</v>
       </c>
       <c r="F132" s="13" t="str">
-        <f t="shared" ref="F132:F195" si="14" xml:space="preserve"> IF($E132 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D132)&amp;"')")</f>
+        <f t="shared" ref="F132:F195" si="21" xml:space="preserve"> IF($E132 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D132)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="G132" s="13" t="str">
-        <f t="shared" ref="G132:G195" si="15" xml:space="preserve"> IF($E132 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C132)&amp;"')")</f>
+        <f t="shared" ref="G132:G195" si="22" xml:space="preserve"> IF($E132 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C132)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="H132" s="13" t="str">
-        <f t="shared" ref="H132:H195" si="16" xml:space="preserve"> IF($E132 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
+        <f t="shared" ref="H132:H195" si="23" xml:space="preserve"> IF($E132 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I132" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-10-27 13:00:00</v>
       </c>
       <c r="K132" s="15" t="str">
-        <f t="shared" ref="K132:K195" si="17" xml:space="preserve">  IF(E132 = "X", "", "("&amp;F132&amp;", "&amp;G132&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I132&amp;"'), ")</f>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 13:00:00'), </v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B133" s="4">
@@ -5174,29 +5174,29 @@
         <v>22</v>
       </c>
       <c r="F133" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="H133" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I133" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-10-27 16:05:00</v>
       </c>
       <c r="K133" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 16:05:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 16:05:00'), </v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B134" s="4">
@@ -5209,29 +5209,29 @@
         <v>37</v>
       </c>
       <c r="F134" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="H134" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I134" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-10-27 16:25:00</v>
       </c>
       <c r="K134" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 16:25:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 16:25:00'), </v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B135" s="4">
@@ -5244,29 +5244,29 @@
         <v>24</v>
       </c>
       <c r="F135" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="H135" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I135" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-10-27 16:25:00</v>
       </c>
       <c r="K135" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 16:25:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 16:25:00'), </v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43765</v>
       </c>
       <c r="B136" s="4">
@@ -5279,24 +5279,24 @@
         <v>14</v>
       </c>
       <c r="F136" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="G136" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="H136" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I136" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-10-27 20:20:00</v>
       </c>
       <c r="K136" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 20:20:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-27 20:20:00'), </v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5313,24 +5313,24 @@
         <v>23</v>
       </c>
       <c r="F137" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="G137" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="H137" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I137" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-10-28 20:15:00</v>
       </c>
       <c r="K137" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-28 20:15:00'), </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 8, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-28 20:15:00'), </v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5344,23 +5344,23 @@
         <v>40</v>
       </c>
       <c r="F138" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H138" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I138" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K138" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K132:K195" si="24" xml:space="preserve">  IF(E138 = "X", "", "("&amp;F138&amp;", "&amp;G138&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I138&amp;"'), ")</f>
         <v/>
       </c>
     </row>
@@ -5381,23 +5381,23 @@
         <v>40</v>
       </c>
       <c r="F139" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G139" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H139" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I139" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K139" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5415,24 +5415,24 @@
         <v>34</v>
       </c>
       <c r="F140" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="G140" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="H140" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I140" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-10-31 20:20:00</v>
       </c>
       <c r="K140" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-31 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E140 = "X", "", "("&amp;F140&amp;", "&amp;G140&amp;", "&amp;A$138&amp;", "&amp;$H$3&amp;", '"&amp;I140&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-10-31 20:20:00'), </v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5449,24 +5449,24 @@
         <v>28</v>
       </c>
       <c r="F141" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="G141" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="H141" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I141" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 09:30:00</v>
       </c>
       <c r="K141" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 09:30:00'), </v>
+        <f t="shared" ref="K141:K153" si="25" xml:space="preserve">  IF(E141 = "X", "", "("&amp;F141&amp;", "&amp;G141&amp;", "&amp;A$138&amp;", "&amp;$H$3&amp;", '"&amp;I141&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 09:30:00'), </v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5484,29 +5484,29 @@
         <v>31</v>
       </c>
       <c r="F142" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="G142" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="H142" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I142" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 13:00:00</v>
       </c>
       <c r="K142" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
-        <f t="shared" ref="A143:A152" si="18">A142</f>
+        <f t="shared" ref="A143:A152" si="26">A142</f>
         <v>43772</v>
       </c>
       <c r="B143" s="5">
@@ -5519,29 +5519,29 @@
         <v>23</v>
       </c>
       <c r="F143" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="G143" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="H143" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I143" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 13:00:00</v>
       </c>
       <c r="K143" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B144" s="5">
@@ -5554,29 +5554,29 @@
         <v>14</v>
       </c>
       <c r="F144" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="G144" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="H144" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I144" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 13:00:00</v>
       </c>
       <c r="K144" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B145" s="5">
@@ -5589,29 +5589,29 @@
         <v>26</v>
       </c>
       <c r="F145" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="G145" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="H145" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I145" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 13:00:00</v>
       </c>
       <c r="K145" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B146" s="5">
@@ -5624,29 +5624,29 @@
         <v>29</v>
       </c>
       <c r="F146" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="G146" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="H146" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I146" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 13:00:00</v>
       </c>
       <c r="K146" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B147" s="5">
@@ -5659,29 +5659,29 @@
         <v>13</v>
       </c>
       <c r="F147" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="G147" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="H147" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I147" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 13:00:00</v>
       </c>
       <c r="K147" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 13:00:00'), </v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B148" s="5">
@@ -5694,29 +5694,29 @@
         <v>39</v>
       </c>
       <c r="F148" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="G148" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="H148" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I148" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 16:05:00</v>
       </c>
       <c r="K148" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:05:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:05:00'), </v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B149" s="5">
@@ -5729,29 +5729,29 @@
         <v>32</v>
       </c>
       <c r="F149" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="G149" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="H149" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I149" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 16:05:00</v>
       </c>
       <c r="K149" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:05:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:05:00'), </v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B150" s="5">
@@ -5764,29 +5764,29 @@
         <v>25</v>
       </c>
       <c r="F150" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="G150" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="H150" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I150" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 16:25:00</v>
       </c>
       <c r="K150" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:25:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:25:00'), </v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B151" s="5">
@@ -5799,29 +5799,29 @@
         <v>33</v>
       </c>
       <c r="F151" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="G151" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="H151" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I151" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 16:25:00</v>
       </c>
       <c r="K151" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:25:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 16:25:00'), </v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>43772</v>
       </c>
       <c r="B152" s="5">
@@ -5834,24 +5834,24 @@
         <v>12</v>
       </c>
       <c r="F152" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="G152" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="H152" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I152" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-03 20:20:00</v>
       </c>
       <c r="K152" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 20:20:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-03 20:20:00'), </v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -5868,24 +5868,24 @@
         <v>21</v>
       </c>
       <c r="F153" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="G153" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="H153" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I153" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-04 20:15:00</v>
       </c>
       <c r="K153" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-04 20:15:00'), </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 9, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-04 20:15:00'), </v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -5899,23 +5899,23 @@
         <v>40</v>
       </c>
       <c r="F154" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G154" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H154" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I154" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K154" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5936,23 +5936,23 @@
         <v>40</v>
       </c>
       <c r="F155" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G155" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H155" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I155" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K155" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5970,24 +5970,24 @@
         <v>39</v>
       </c>
       <c r="F156" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="G156" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="H156" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I156" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-07 20:20:00</v>
       </c>
       <c r="K156" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-07 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E156 = "X", "", "("&amp;F156&amp;", "&amp;G156&amp;", "&amp;A$154&amp;", "&amp;$H$3&amp;", '"&amp;I156&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-07 20:20:00'), </v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6004,24 +6004,24 @@
         <v>36</v>
       </c>
       <c r="F157" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="G157" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="H157" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I157" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 13:00:00</v>
       </c>
       <c r="K157" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
+        <f t="shared" ref="K157:K168" si="27" xml:space="preserve">  IF(E157 = "X", "", "("&amp;F157&amp;", "&amp;G157&amp;", "&amp;A$154&amp;", "&amp;$H$3&amp;", '"&amp;I157&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6039,29 +6039,29 @@
         <v>38</v>
       </c>
       <c r="F158" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="G158" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="H158" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I158" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 13:00:00</v>
       </c>
       <c r="K158" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
-        <f t="shared" ref="A159:A167" si="19">A158</f>
+        <f t="shared" ref="A159:A167" si="28">A158</f>
         <v>43779</v>
       </c>
       <c r="B159" s="5">
@@ -6074,29 +6074,29 @@
         <v>18</v>
       </c>
       <c r="F159" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="G159" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="H159" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I159" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 13:00:00</v>
       </c>
       <c r="K159" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B160" s="5">
@@ -6109,29 +6109,29 @@
         <v>30</v>
       </c>
       <c r="F160" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="G160" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="H160" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I160" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 13:00:00</v>
       </c>
       <c r="K160" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B161" s="5">
@@ -6144,29 +6144,29 @@
         <v>8</v>
       </c>
       <c r="F161" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="G161" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="H161" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I161" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 13:00:00</v>
       </c>
       <c r="K161" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B162" s="5">
@@ -6179,29 +6179,29 @@
         <v>16</v>
       </c>
       <c r="F162" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="H162" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I162" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 13:00:00</v>
       </c>
       <c r="K162" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B163" s="5">
@@ -6214,29 +6214,29 @@
         <v>27</v>
       </c>
       <c r="F163" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="G163" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="H163" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I163" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 13:00:00</v>
       </c>
       <c r="K163" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 13:00:00'), </v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B164" s="5">
@@ -6249,29 +6249,29 @@
         <v>19</v>
       </c>
       <c r="F164" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="G164" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="H164" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I164" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 16:05:00</v>
       </c>
       <c r="K164" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 16:05:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 16:05:00'), </v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B165" s="5">
@@ -6284,29 +6284,29 @@
         <v>10</v>
       </c>
       <c r="F165" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="G165" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="H165" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I165" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 16:25:00</v>
       </c>
       <c r="K165" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 16:25:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 16:25:00'), </v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B166" s="5">
@@ -6319,29 +6319,29 @@
         <v>23</v>
       </c>
       <c r="F166" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="G166" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="H166" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I166" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 16:25:00</v>
       </c>
       <c r="K166" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 16:25:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 16:25:00'), </v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43779</v>
       </c>
       <c r="B167" s="5">
@@ -6354,24 +6354,24 @@
         <v>35</v>
       </c>
       <c r="F167" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="G167" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="H167" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I167" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-10 20:20:00</v>
       </c>
       <c r="K167" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 20:20:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-10 20:20:00'), </v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -6388,24 +6388,24 @@
         <v>22</v>
       </c>
       <c r="F168" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="G168" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="H168" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I168" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-11 20:15:00</v>
       </c>
       <c r="K168" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-11 20:15:00'), </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 10, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-11 20:15:00'), </v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6419,23 +6419,23 @@
         <v>40</v>
       </c>
       <c r="F169" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G169" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H169" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I169" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K169" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6456,23 +6456,23 @@
         <v>40</v>
       </c>
       <c r="F170" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G170" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H170" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I170" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K170" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6490,24 +6490,24 @@
         <v>30</v>
       </c>
       <c r="F171" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="G171" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="H171" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I171" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-14 20:20:00</v>
       </c>
       <c r="K171" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-14 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E171 = "X", "", "("&amp;F171&amp;", "&amp;G171&amp;", "&amp;A$169&amp;", "&amp;$H$3&amp;", '"&amp;I171&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-14 20:20:00'), </v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6524,24 +6524,24 @@
         <v>29</v>
       </c>
       <c r="F172" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="G172" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="H172" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I172" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K172" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" ref="K172:K184" si="29" xml:space="preserve">  IF(E172 = "X", "", "("&amp;F172&amp;", "&amp;G172&amp;", "&amp;A$169&amp;", "&amp;$H$3&amp;", '"&amp;I172&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6559,29 +6559,29 @@
         <v>26</v>
       </c>
       <c r="F173" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="G173" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="H173" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I173" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K173" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
-        <f t="shared" ref="A174:A183" si="20">A173</f>
+        <f t="shared" ref="A174:A183" si="30">A173</f>
         <v>43786</v>
       </c>
       <c r="B174" s="5">
@@ -6594,29 +6594,29 @@
         <v>20</v>
       </c>
       <c r="F174" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="G174" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="H174" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I174" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K174" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B175" s="5">
@@ -6629,29 +6629,29 @@
         <v>9</v>
       </c>
       <c r="F175" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="G175" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="H175" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I175" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K175" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B176" s="5">
@@ -6664,29 +6664,29 @@
         <v>12</v>
       </c>
       <c r="F176" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="G176" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="H176" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I176" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K176" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B177" s="5">
@@ -6699,29 +6699,29 @@
         <v>19</v>
       </c>
       <c r="F177" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="G177" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="H177" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I177" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K177" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B178" s="5">
@@ -6734,29 +6734,29 @@
         <v>36</v>
       </c>
       <c r="F178" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="G178" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="H178" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I178" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K178" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B179" s="5">
@@ -6769,29 +6769,29 @@
         <v>17</v>
       </c>
       <c r="F179" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="G179" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="H179" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I179" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 13:00:00</v>
       </c>
       <c r="K179" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 13:00:00'), </v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B180" s="5">
@@ -6804,29 +6804,29 @@
         <v>22</v>
       </c>
       <c r="F180" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="G180" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="H180" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I180" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 16:05:00</v>
       </c>
       <c r="K180" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 16:05:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 16:05:00'), </v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B181" s="5">
@@ -6839,29 +6839,29 @@
         <v>39</v>
       </c>
       <c r="F181" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="G181" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="H181" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I181" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 16:25:00</v>
       </c>
       <c r="K181" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 16:25:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 16:25:00'), </v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B182" s="5">
@@ -6874,29 +6874,29 @@
         <v>31</v>
       </c>
       <c r="F182" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="G182" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="H182" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I182" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 16:25:00</v>
       </c>
       <c r="K182" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 16:25:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 16:25:00'), </v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>43786</v>
       </c>
       <c r="B183" s="5">
@@ -6909,24 +6909,24 @@
         <v>15</v>
       </c>
       <c r="F183" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="G183" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="H183" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I183" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-17 20:20:00</v>
       </c>
       <c r="K183" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 20:20:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-17 20:20:00'), </v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -6943,24 +6943,24 @@
         <v>33</v>
       </c>
       <c r="F184" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="G184" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="H184" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I184" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-18 20:15:00</v>
       </c>
       <c r="K184" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-18 20:15:00'), </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 11, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-18 20:15:00'), </v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -6974,23 +6974,23 @@
         <v>40</v>
       </c>
       <c r="F185" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G185" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H185" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I185" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K185" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -7011,23 +7011,23 @@
         <v>40</v>
       </c>
       <c r="F186" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G186" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H186" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I186" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K186" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -7045,24 +7045,24 @@
         <v>24</v>
       </c>
       <c r="F187" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="G187" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="H187" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I187" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-21 20:20:00</v>
       </c>
       <c r="K187" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-21 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E187 = "X", "", "("&amp;F187&amp;", "&amp;G187&amp;", "&amp;A$185&amp;", "&amp;$H$3&amp;", '"&amp;I187&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-21 20:20:00'), </v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7079,24 +7079,24 @@
         <v>38</v>
       </c>
       <c r="F188" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="G188" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="H188" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I188" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K188" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" ref="K188:K200" si="31" xml:space="preserve">  IF(E188 = "X", "", "("&amp;F188&amp;", "&amp;G188&amp;", "&amp;A$185&amp;", "&amp;$H$3&amp;", '"&amp;I188&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7114,29 +7114,29 @@
         <v>13</v>
       </c>
       <c r="F189" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="G189" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="H189" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I189" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K189" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
-        <f t="shared" ref="A190:A199" si="21">A189</f>
+        <f t="shared" ref="A190:A199" si="32">A189</f>
         <v>43793</v>
       </c>
       <c r="B190" s="5">
@@ -7149,29 +7149,29 @@
         <v>17</v>
       </c>
       <c r="F190" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="G190" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="H190" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I190" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K190" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B191" s="5">
@@ -7184,29 +7184,29 @@
         <v>30</v>
       </c>
       <c r="F191" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="G191" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="H191" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I191" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K191" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B192" s="5">
@@ -7219,29 +7219,29 @@
         <v>8</v>
       </c>
       <c r="F192" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="G192" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="H192" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I192" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K192" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B193" s="5">
@@ -7254,29 +7254,29 @@
         <v>27</v>
       </c>
       <c r="F193" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="G193" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="H193" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I193" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K193" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B194" s="5">
@@ -7289,29 +7289,29 @@
         <v>18</v>
       </c>
       <c r="F194" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="G194" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="H194" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I194" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K194" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B195" s="5">
@@ -7324,29 +7324,29 @@
         <v>31</v>
       </c>
       <c r="F195" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="G195" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="H195" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I195" s="16" t="str">
-        <f t="shared" ref="I195:I258" si="22">IF(E195="X","",TEXT(A195,"yyyy-mm-dd")&amp;" "&amp;TEXT(B195,"hh:mm:ss"))</f>
+        <f t="shared" ref="I195:I258" si="33">IF(E195="X","",TEXT(A195,"yyyy-mm-dd")&amp;" "&amp;TEXT(B195,"hh:mm:ss"))</f>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K195" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B196" s="5">
@@ -7359,29 +7359,29 @@
         <v>11</v>
       </c>
       <c r="F196" s="13" t="str">
-        <f t="shared" ref="F196:F259" si="23" xml:space="preserve"> IF($E196 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D196)&amp;"')")</f>
+        <f t="shared" ref="F196:F259" si="34" xml:space="preserve"> IF($E196 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D196)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="G196" s="13" t="str">
-        <f t="shared" ref="G196:G259" si="24" xml:space="preserve"> IF($E196 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C196)&amp;"')")</f>
+        <f t="shared" ref="G196:G259" si="35" xml:space="preserve"> IF($E196 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C196)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="H196" s="13" t="str">
-        <f t="shared" ref="H196:H259" si="25" xml:space="preserve"> IF($E196 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
+        <f t="shared" ref="H196:H259" si="36" xml:space="preserve"> IF($E196 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I196" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-24 13:00:00</v>
       </c>
       <c r="K196" s="15" t="str">
-        <f t="shared" ref="K196:K259" si="26" xml:space="preserve">  IF(E196 = "X", "", "("&amp;F196&amp;", "&amp;G196&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I196&amp;"'), ")</f>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 13:00:00'), </v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B197" s="5">
@@ -7394,29 +7394,29 @@
         <v>16</v>
       </c>
       <c r="F197" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="G197" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="H197" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I197" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-24 16:05:00</v>
       </c>
       <c r="K197" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 16:05:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 16:05:00'), </v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B198" s="5">
@@ -7429,29 +7429,29 @@
         <v>37</v>
       </c>
       <c r="F198" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="G198" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="H198" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I198" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-24 16:25:00</v>
       </c>
       <c r="K198" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 16:25:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 16:25:00'), </v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>43793</v>
       </c>
       <c r="B199" s="5">
@@ -7464,24 +7464,24 @@
         <v>22</v>
       </c>
       <c r="F199" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="G199" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="H199" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I199" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-24 20:20:00</v>
       </c>
       <c r="K199" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 20:20:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-24 20:20:00'), </v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -7498,24 +7498,24 @@
         <v>15</v>
       </c>
       <c r="F200" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="G200" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="H200" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I200" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-25 20:15:00</v>
       </c>
       <c r="K200" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-25 20:15:00'), </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 12, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-25 20:15:00'), </v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -7529,23 +7529,23 @@
         <v>40</v>
       </c>
       <c r="F201" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G201" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H201" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I201" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K201" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="K196:K259" si="37" xml:space="preserve">  IF(E201 = "X", "", "("&amp;F201&amp;", "&amp;G201&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I201&amp;"'), ")</f>
         <v/>
       </c>
     </row>
@@ -7566,23 +7566,23 @@
         <v>40</v>
       </c>
       <c r="F202" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G202" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H202" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I202" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K202" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -7600,24 +7600,24 @@
         <v>20</v>
       </c>
       <c r="F203" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="G203" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="H203" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I203" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-28 12:30:00</v>
       </c>
       <c r="K203" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-28 12:30:00'), </v>
+        <f xml:space="preserve">  IF(E203 = "X", "", "("&amp;F203&amp;", "&amp;G203&amp;", "&amp;A$201&amp;", "&amp;$H$3&amp;", '"&amp;I203&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-28 12:30:00'), </v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -7635,24 +7635,24 @@
         <v>35</v>
       </c>
       <c r="F204" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="G204" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="H204" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I204" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-28 16:30:00</v>
       </c>
       <c r="K204" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-28 16:30:00'), </v>
+        <f t="shared" ref="K204:K218" si="38" xml:space="preserve">  IF(E204 = "X", "", "("&amp;F204&amp;", "&amp;G204&amp;", "&amp;A$201&amp;", "&amp;$H$3&amp;", '"&amp;I204&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-28 16:30:00'), </v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -7670,24 +7670,24 @@
         <v>11</v>
       </c>
       <c r="F205" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="G205" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="H205" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I205" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-11-28 20:20:00</v>
       </c>
       <c r="K205" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-28 20:20:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-11-28 20:20:00'), </v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -7704,24 +7704,24 @@
         <v>23</v>
       </c>
       <c r="F206" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="G206" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="H206" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I206" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K206" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -7739,29 +7739,29 @@
         <v>21</v>
       </c>
       <c r="F207" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="G207" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="H207" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I207" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K207" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
-        <f t="shared" ref="A208:A217" si="27">A207</f>
+        <f t="shared" ref="A208:A217" si="39">A207</f>
         <v>43800</v>
       </c>
       <c r="B208" s="5">
@@ -7774,29 +7774,29 @@
         <v>18</v>
       </c>
       <c r="F208" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="G208" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="H208" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I208" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K208" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B209" s="5">
@@ -7809,29 +7809,29 @@
         <v>26</v>
       </c>
       <c r="F209" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="G209" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="H209" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I209" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K209" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B210" s="5">
@@ -7844,29 +7844,29 @@
         <v>12</v>
       </c>
       <c r="F210" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="G210" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="H210" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I210" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K210" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B211" s="5">
@@ -7879,29 +7879,29 @@
         <v>28</v>
       </c>
       <c r="F211" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="G211" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="H211" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I211" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K211" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B212" s="5">
@@ -7914,29 +7914,29 @@
         <v>19</v>
       </c>
       <c r="F212" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="G212" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="H212" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I212" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K212" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B213" s="5">
@@ -7949,29 +7949,29 @@
         <v>29</v>
       </c>
       <c r="F213" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="G213" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="H213" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I213" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 13:00:00</v>
       </c>
       <c r="K213" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 13:00:00'), </v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B214" s="5">
@@ -7984,29 +7984,29 @@
         <v>34</v>
       </c>
       <c r="F214" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="G214" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="H214" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I214" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 16:05:00</v>
       </c>
       <c r="K214" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 16:05:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 16:05:00'), </v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B215" s="5">
@@ -8019,29 +8019,29 @@
         <v>25</v>
       </c>
       <c r="F215" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="G215" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="H215" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I215" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 16:25:00</v>
       </c>
       <c r="K215" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 16:25:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 16:25:00'), </v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B216" s="5">
@@ -8054,29 +8054,29 @@
         <v>14</v>
       </c>
       <c r="F216" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="G216" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="H216" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I216" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 16:25:00</v>
       </c>
       <c r="K216" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 16:25:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 16:25:00'), </v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>43800</v>
       </c>
       <c r="B217" s="5">
@@ -8089,24 +8089,24 @@
         <v>24</v>
       </c>
       <c r="F217" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="G217" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="H217" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I217" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-01 20:20:00</v>
       </c>
       <c r="K217" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 20:20:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-01 20:20:00'), </v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8123,24 +8123,24 @@
         <v>32</v>
       </c>
       <c r="F218" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="G218" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="H218" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I218" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-02 20:15:00</v>
       </c>
       <c r="K218" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-02 20:15:00'), </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 13, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-02 20:15:00'), </v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8154,23 +8154,23 @@
         <v>40</v>
       </c>
       <c r="F219" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G219" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H219" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I219" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K219" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -8191,23 +8191,23 @@
         <v>40</v>
       </c>
       <c r="F220" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G220" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H220" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I220" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K220" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -8225,24 +8225,24 @@
         <v>8</v>
       </c>
       <c r="F221" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="G221" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="H221" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I221" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-05 20:20:00</v>
       </c>
       <c r="K221" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-05 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E221 = "X", "", "("&amp;F221&amp;", "&amp;G221&amp;", "&amp;A$219&amp;", "&amp;$H$3&amp;", '"&amp;I221&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-05 20:20:00'), </v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8259,24 +8259,24 @@
         <v>13</v>
       </c>
       <c r="F222" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="G222" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="H222" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I222" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K222" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" ref="K222:K236" si="40" xml:space="preserve">  IF(E222 = "X", "", "("&amp;F222&amp;", "&amp;G222&amp;", "&amp;A$219&amp;", "&amp;$H$3&amp;", '"&amp;I222&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8294,29 +8294,29 @@
         <v>11</v>
       </c>
       <c r="F223" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="G223" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="H223" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I223" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K223" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
-        <f t="shared" ref="A224:A235" si="28">A223</f>
+        <f t="shared" ref="A224:A235" si="41">A223</f>
         <v>43807</v>
       </c>
       <c r="B224" s="5">
@@ -8329,29 +8329,29 @@
         <v>30</v>
       </c>
       <c r="F224" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="G224" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="H224" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I224" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K224" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B225" s="5">
@@ -8364,29 +8364,29 @@
         <v>24</v>
       </c>
       <c r="F225" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="G225" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="H225" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I225" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K225" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B226" s="5">
@@ -8399,29 +8399,29 @@
         <v>9</v>
       </c>
       <c r="F226" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="G226" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="H226" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I226" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K226" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B227" s="5">
@@ -8434,29 +8434,29 @@
         <v>36</v>
       </c>
       <c r="F227" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="G227" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="H227" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I227" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K227" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B228" s="5">
@@ -8469,29 +8469,29 @@
         <v>27</v>
       </c>
       <c r="F228" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="G228" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="H228" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I228" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K228" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B229" s="5">
@@ -8504,29 +8504,29 @@
         <v>38</v>
       </c>
       <c r="F229" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="G229" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="H229" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I229" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K229" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B230" s="5">
@@ -8539,29 +8539,29 @@
         <v>10</v>
       </c>
       <c r="F230" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="G230" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="H230" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I230" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 13:00:00</v>
       </c>
       <c r="K230" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 13:00:00'), </v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B231" s="5">
@@ -8574,29 +8574,29 @@
         <v>28</v>
       </c>
       <c r="F231" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="G231" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="H231" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I231" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 16:05:00</v>
       </c>
       <c r="K231" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:05:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:05:00'), </v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B232" s="5">
@@ -8609,29 +8609,29 @@
         <v>37</v>
       </c>
       <c r="F232" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="G232" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="H232" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I232" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 16:25:00</v>
       </c>
       <c r="K232" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:25:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:25:00'), </v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B233" s="5">
@@ -8644,29 +8644,29 @@
         <v>34</v>
       </c>
       <c r="F233" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="G233" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="H233" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I233" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 16:25:00</v>
       </c>
       <c r="K233" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:25:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:25:00'), </v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B234" s="5">
@@ -8679,29 +8679,29 @@
         <v>39</v>
       </c>
       <c r="F234" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="G234" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="H234" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I234" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 16:25:00</v>
       </c>
       <c r="K234" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:25:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 16:25:00'), </v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>43807</v>
       </c>
       <c r="B235" s="5">
@@ -8714,24 +8714,24 @@
         <v>15</v>
       </c>
       <c r="F235" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="G235" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="H235" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I235" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-08 20:20:00</v>
       </c>
       <c r="K235" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 20:20:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-08 20:20:00'), </v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8748,24 +8748,24 @@
         <v>31</v>
       </c>
       <c r="F236" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="G236" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="H236" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I236" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-09 20:15:00</v>
       </c>
       <c r="K236" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-09 20:15:00'), </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 14, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-09 20:15:00'), </v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -8779,23 +8779,23 @@
         <v>40</v>
       </c>
       <c r="F237" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G237" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H237" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I237" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K237" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -8816,23 +8816,23 @@
         <v>40</v>
       </c>
       <c r="F238" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G238" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H238" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I238" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K238" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -8850,24 +8850,24 @@
         <v>12</v>
       </c>
       <c r="F239" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="G239" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="H239" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I239" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-12 20:20:00</v>
       </c>
       <c r="K239" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-12 20:20:00'), </v>
+        <f xml:space="preserve">  IF(E239 = "X", "", "("&amp;F239&amp;", "&amp;G239&amp;", "&amp;A$237&amp;", "&amp;$H$3&amp;", '"&amp;I239&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-12 20:20:00'), </v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -8884,24 +8884,24 @@
         <v>23</v>
       </c>
       <c r="F240" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="G240" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="H240" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I240" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K240" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" ref="K240:K254" si="42" xml:space="preserve">  IF(E240 = "X", "", "("&amp;F240&amp;", "&amp;G240&amp;", "&amp;A$237&amp;", "&amp;$H$3&amp;", '"&amp;I240&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -8919,29 +8919,29 @@
         <v>10</v>
       </c>
       <c r="F241" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="G241" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="H241" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I241" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K241" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
-        <f t="shared" ref="A242:A253" si="29">A241</f>
+        <f t="shared" ref="A242:A253" si="43">A241</f>
         <v>43814</v>
       </c>
       <c r="B242" s="5">
@@ -8954,29 +8954,29 @@
         <v>14</v>
       </c>
       <c r="F242" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="G242" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="H242" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I242" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K242" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B243" s="5">
@@ -8989,29 +8989,29 @@
         <v>16</v>
       </c>
       <c r="F243" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="G243" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="H243" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I243" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K243" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B244" s="5">
@@ -9024,29 +9024,29 @@
         <v>21</v>
       </c>
       <c r="F244" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="G244" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="H244" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I244" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K244" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B245" s="5">
@@ -9059,29 +9059,29 @@
         <v>18</v>
       </c>
       <c r="F245" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="G245" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="H245" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I245" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K245" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B246" s="5">
@@ -9094,29 +9094,29 @@
         <v>17</v>
       </c>
       <c r="F246" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="G246" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="H246" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I246" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K246" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B247" s="5">
@@ -9129,29 +9129,29 @@
         <v>29</v>
       </c>
       <c r="F247" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="G247" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="H247" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I247" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K247" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B248" s="5">
@@ -9164,29 +9164,29 @@
         <v>20</v>
       </c>
       <c r="F248" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="G248" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="H248" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I248" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 13:00:00</v>
       </c>
       <c r="K248" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 13:00:00'), </v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B249" s="5">
@@ -9199,29 +9199,29 @@
         <v>34</v>
       </c>
       <c r="F249" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="G249" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="H249" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I249" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 16:05:00</v>
       </c>
       <c r="K249" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:05:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:05:00'), </v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B250" s="5">
@@ -9234,29 +9234,29 @@
         <v>39</v>
       </c>
       <c r="F250" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="G250" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="H250" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I250" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 16:05:00</v>
       </c>
       <c r="K250" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:05:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:05:00'), </v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B251" s="5">
@@ -9269,29 +9269,29 @@
         <v>22</v>
       </c>
       <c r="F251" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="G251" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="H251" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I251" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 16:25:00</v>
       </c>
       <c r="K251" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:25:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:25:00'), </v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B252" s="5">
@@ -9304,29 +9304,29 @@
         <v>35</v>
       </c>
       <c r="F252" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="G252" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="H252" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I252" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 16:25:00</v>
       </c>
       <c r="K252" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:25:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 16:25:00'), </v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>43814</v>
       </c>
       <c r="B253" s="5">
@@ -9339,24 +9339,24 @@
         <v>33</v>
       </c>
       <c r="F253" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="G253" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="H253" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I253" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-15 20:20:00</v>
       </c>
       <c r="K253" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 20:20:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-15 20:20:00'), </v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -9373,24 +9373,24 @@
         <v>38</v>
       </c>
       <c r="F254" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="G254" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="H254" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I254" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-16 20:15:00</v>
       </c>
       <c r="K254" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-16 20:15:00'), </v>
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 15, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-16 20:15:00'), </v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -9404,23 +9404,23 @@
         <v>40</v>
       </c>
       <c r="F255" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G255" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H255" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I255" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K255" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -9441,23 +9441,23 @@
         <v>40</v>
       </c>
       <c r="F256" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G256" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H256" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I256" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K256" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -9475,24 +9475,24 @@
         <v>30</v>
       </c>
       <c r="F257" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="G257" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="H257" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I257" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K257" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f xml:space="preserve">  IF(E257 = "X", "", "("&amp;F257&amp;", "&amp;G257&amp;", "&amp;A$255&amp;", "&amp;$H$3&amp;", '"&amp;I257&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -9510,29 +9510,29 @@
         <v>37</v>
       </c>
       <c r="F258" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="G258" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="H258" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I258" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K258" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" ref="K258:K272" si="44" xml:space="preserve">  IF(E258 = "X", "", "("&amp;F258&amp;", "&amp;G258&amp;", "&amp;A$255&amp;", "&amp;$H$3&amp;", '"&amp;I258&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
-        <f t="shared" ref="A259:A271" si="30">A258</f>
+        <f t="shared" ref="A259:A271" si="45">A258</f>
         <v>43821</v>
       </c>
       <c r="B259" s="5">
@@ -9545,29 +9545,29 @@
         <v>19</v>
       </c>
       <c r="F259" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="G259" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="H259" s="13" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I259" s="16" t="str">
-        <f t="shared" ref="I259:I271" si="31">IF(E259="X","",TEXT(A259,"yyyy-mm-dd")&amp;" "&amp;TEXT(B259,"hh:mm:ss"))</f>
+        <f t="shared" ref="I259:I271" si="46">IF(E259="X","",TEXT(A259,"yyyy-mm-dd")&amp;" "&amp;TEXT(B259,"hh:mm:ss"))</f>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K259" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B260" s="5">
@@ -9580,29 +9580,29 @@
         <v>26</v>
       </c>
       <c r="F260" s="13" t="str">
-        <f t="shared" ref="F260:F290" si="32" xml:space="preserve"> IF($E260 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D260)&amp;"')")</f>
+        <f t="shared" ref="F260:F290" si="47" xml:space="preserve"> IF($E260 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(D260)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="G260" s="13" t="str">
-        <f t="shared" ref="G260:G290" si="33" xml:space="preserve"> IF($E260 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C260)&amp;"')")</f>
+        <f t="shared" ref="G260:G290" si="48" xml:space="preserve"> IF($E260 = "X", "", "(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = '"&amp;TRIM(C260)&amp;"')")</f>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="H260" s="13" t="str">
-        <f t="shared" ref="H260:H290" si="34" xml:space="preserve"> IF($E260 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
+        <f t="shared" ref="H260:H290" si="49" xml:space="preserve"> IF($E260 = "X", "",  "(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)")</f>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I260" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K260" s="15" t="str">
-        <f t="shared" ref="K260:K290" si="35" xml:space="preserve">  IF(E260 = "X", "", "("&amp;F260&amp;", "&amp;G260&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I260&amp;"'), ")</f>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B261" s="5">
@@ -9615,29 +9615,29 @@
         <v>25</v>
       </c>
       <c r="F261" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="G261" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="H261" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I261" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K261" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B262" s="5">
@@ -9650,29 +9650,29 @@
         <v>36</v>
       </c>
       <c r="F262" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="G262" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="H262" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I262" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K262" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B263" s="5">
@@ -9685,29 +9685,29 @@
         <v>11</v>
       </c>
       <c r="F263" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="G263" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="H263" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I263" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K263" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B264" s="5">
@@ -9720,29 +9720,29 @@
         <v>22</v>
       </c>
       <c r="F264" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="G264" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="H264" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I264" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K264" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B265" s="5">
@@ -9755,29 +9755,29 @@
         <v>16</v>
       </c>
       <c r="F265" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="G265" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="H265" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I265" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K265" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B266" s="5">
@@ -9790,29 +9790,29 @@
         <v>17</v>
       </c>
       <c r="F266" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="G266" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="H266" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I266" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K266" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B267" s="5">
@@ -9825,29 +9825,29 @@
         <v>33</v>
       </c>
       <c r="F267" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="G267" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="H267" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I267" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K267" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B268" s="5">
@@ -9860,29 +9860,29 @@
         <v>27</v>
       </c>
       <c r="F268" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="G268" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="H268" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I268" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 13:00:00</v>
       </c>
       <c r="K268" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 13:00:00'), </v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B269" s="5">
@@ -9895,29 +9895,29 @@
         <v>32</v>
       </c>
       <c r="F269" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="G269" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="H269" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I269" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 16:25:00</v>
       </c>
       <c r="K269" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 16:25:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 16:25:00'), </v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B270" s="5">
@@ -9930,29 +9930,29 @@
         <v>31</v>
       </c>
       <c r="F270" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="G270" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="H270" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I270" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 16:25:00</v>
       </c>
       <c r="K270" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 16:25:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 16:25:00'), </v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>43821</v>
       </c>
       <c r="B271" s="5">
@@ -9965,24 +9965,24 @@
         <v>8</v>
       </c>
       <c r="F271" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="G271" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="H271" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I271" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>2019-12-22 20:20:00</v>
       </c>
       <c r="K271" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 20:20:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-22 20:20:00'), </v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -9999,15 +9999,15 @@
         <v>9</v>
       </c>
       <c r="F272" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="G272" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="H272" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I272" s="16" t="str">
@@ -10015,8 +10015,8 @@
         <v>2019-12-23 20:15:00</v>
       </c>
       <c r="K272" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-23 20:15:00'), </v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 16, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-23 20:15:00'), </v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10030,23 +10030,23 @@
         <v>40</v>
       </c>
       <c r="F273" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="G273" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H273" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I273" s="16" t="str">
-        <f t="shared" ref="I273:I290" si="36">IF(E273="X","",TEXT(A273,"yyyy-mm-dd")&amp;" "&amp;TEXT(B273,"hh:mm:ss"))</f>
+        <f t="shared" ref="I273:I290" si="50">IF(E273="X","",TEXT(A273,"yyyy-mm-dd")&amp;" "&amp;TEXT(B273,"hh:mm:ss"))</f>
         <v/>
       </c>
       <c r="K273" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="K260:K290" si="51" xml:space="preserve">  IF(E273 = "X", "", "("&amp;F273&amp;", "&amp;G273&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I273&amp;"'), ")</f>
         <v/>
       </c>
     </row>
@@ -10067,23 +10067,23 @@
         <v>40</v>
       </c>
       <c r="F274" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="G274" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H274" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I274" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K274" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -10101,24 +10101,24 @@
         <v>36</v>
       </c>
       <c r="F275" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers')</v>
       </c>
       <c r="G275" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons')</v>
       </c>
       <c r="H275" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I275" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K275" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f xml:space="preserve">  IF(E275 = "X", "", "("&amp;F275&amp;", "&amp;G275&amp;", "&amp;A$273&amp;", "&amp;$H$3&amp;", '"&amp;I275&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tampa Bay Buccaneers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Atlanta Falcons'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -10136,29 +10136,29 @@
         <v>9</v>
       </c>
       <c r="F276" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings')</v>
       </c>
       <c r="G276" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears')</v>
       </c>
       <c r="H276" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I276" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K276" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" ref="K276:K289" si="52" xml:space="preserve">  IF(E276 = "X", "", "("&amp;F276&amp;", "&amp;G276&amp;", "&amp;A$273&amp;", "&amp;$H$3&amp;", '"&amp;I276&amp;"'), ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Minnesota Vikings'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Chicago Bears'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
-        <f t="shared" ref="A277:A290" si="37">A276</f>
+        <f t="shared" ref="A277:A290" si="53">A276</f>
         <v>43828</v>
       </c>
       <c r="B277" s="5">
@@ -10171,29 +10171,29 @@
         <v>18</v>
       </c>
       <c r="F277" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals')</v>
       </c>
       <c r="G277" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns')</v>
       </c>
       <c r="H277" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I277" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K277" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cincinnati Bengals'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Cleveland Browns'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B278" s="5">
@@ -10206,29 +10206,29 @@
         <v>20</v>
       </c>
       <c r="F278" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions')</v>
       </c>
       <c r="G278" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers')</v>
       </c>
       <c r="H278" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I278" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K278" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Detroit Lions'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Green Bay Packers'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B279" s="5">
@@ -10241,29 +10241,29 @@
         <v>28</v>
       </c>
       <c r="F279" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars')</v>
       </c>
       <c r="G279" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts')</v>
       </c>
       <c r="H279" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I279" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K279" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Jacksonville Jaguars'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Indianapolis Colts'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B280" s="5">
@@ -10276,29 +10276,29 @@
         <v>14</v>
       </c>
       <c r="F280" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs')</v>
       </c>
       <c r="G280" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers')</v>
       </c>
       <c r="H280" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I280" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K280" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Kansas City Chiefs'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Chargers'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B281" s="5">
@@ -10311,29 +10311,29 @@
         <v>37</v>
       </c>
       <c r="F281" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots')</v>
       </c>
       <c r="G281" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins')</v>
       </c>
       <c r="H281" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I281" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K281" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New England Patriots'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Miami Dolphins'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B282" s="5">
@@ -10346,29 +10346,29 @@
         <v>29</v>
       </c>
       <c r="F282" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers')</v>
       </c>
       <c r="G282" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints')</v>
       </c>
       <c r="H282" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I282" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K282" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Carolina Panthers'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New Orleans Saints'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B283" s="5">
@@ -10381,29 +10381,29 @@
         <v>13</v>
       </c>
       <c r="F283" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills')</v>
       </c>
       <c r="G283" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets')</v>
       </c>
       <c r="H283" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I283" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K283" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Buffalo Bills'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Jets'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B284" s="5">
@@ -10416,29 +10416,29 @@
         <v>21</v>
       </c>
       <c r="F284" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants')</v>
       </c>
       <c r="G284" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles')</v>
       </c>
       <c r="H284" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I284" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K284" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'New York Giants'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Philadelphia Eagles'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B285" s="5">
@@ -10451,29 +10451,29 @@
         <v>12</v>
       </c>
       <c r="F285" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens')</v>
       </c>
       <c r="G285" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers')</v>
       </c>
       <c r="H285" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I285" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K285" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Baltimore Ravens'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Pittsburgh Steelers'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B286" s="5">
@@ -10486,29 +10486,29 @@
         <v>24</v>
       </c>
       <c r="F286" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans')</v>
       </c>
       <c r="G286" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans')</v>
       </c>
       <c r="H286" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I286" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K286" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Houston Texans'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Tennessee Titans'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B287" s="5">
@@ -10521,29 +10521,29 @@
         <v>35</v>
       </c>
       <c r="F287" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys')</v>
       </c>
       <c r="G287" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins')</v>
       </c>
       <c r="H287" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I287" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 13:00:00</v>
       </c>
       <c r="K287" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Dallas Cowboys'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Washington Redskins'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 13:00:00'), </v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B288" s="5">
@@ -10556,29 +10556,29 @@
         <v>15</v>
       </c>
       <c r="F288" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams')</v>
       </c>
       <c r="G288" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals')</v>
       </c>
       <c r="H288" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I288" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 16:25:00</v>
       </c>
       <c r="K288" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 16:25:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Los Angeles Rams'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Arizona Cardinals'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 16:25:00'), </v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B289" s="5">
@@ -10591,29 +10591,29 @@
         <v>25</v>
       </c>
       <c r="F289" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos')</v>
       </c>
       <c r="G289" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders')</v>
       </c>
       <c r="H289" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I289" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 16:25:00</v>
       </c>
       <c r="K289" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 16:25:00'), </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Denver Broncos'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Oakland Raiders'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 16:25:00'), </v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>43828</v>
       </c>
       <c r="B290" s="5">
@@ -10626,24 +10626,24 @@
         <v>32</v>
       </c>
       <c r="F290" s="13" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks')</v>
       </c>
       <c r="G290" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>(SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers')</v>
       </c>
       <c r="H290" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>(SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019)</v>
       </c>
       <c r="I290" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2019-12-29 16:25:00</v>
       </c>
       <c r="K290" s="15" t="str">
-        <f xml:space="preserve">  IF(E290 = "X", "", "("&amp;F290&amp;", "&amp;G290&amp;", "&amp;A$1&amp;", "&amp;$H$3&amp;", '"&amp;I290&amp;"') ")</f>
-        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 1, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 16:25:00') </v>
+        <f xml:space="preserve">  IF(E290 = "X", "", "("&amp;F290&amp;", "&amp;G290&amp;", "&amp;A$273&amp;", "&amp;$H$3&amp;", '"&amp;I290&amp;"') ")</f>
+        <v xml:space="preserve">((SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'Seattle Seahawks'), (SELECT T.TeamID FROM NFL.Teams T WHERE T.TeamName = 'San Francisco 49ers'), 17, (SELECT S.SeasonID FROM Games.Season S WHERE S.[Year] = 2019), '2019-12-29 16:25:00') </v>
       </c>
     </row>
     <row r="311" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
